--- a/biology/Botanique/Square_Boucicaut/Square_Boucicaut.xlsx
+++ b/biology/Botanique/Square_Boucicaut/Square_Boucicaut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Boucicaut est un square du 7e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On y accède par la rue de Babylone et la rue de Sèvres.
 Il est desservi par les lignes 10 et 12 à la station Sèvres - Babylone.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une superficie de 7 202 m2, il se trouve à l'angle de la rue de Sèvres et du boulevard Raspail, face au magasin Le Bon Marché.
 On y trouve des essences rares et un groupe statuaire en marbre réalisé en 1914 par Paul Moreau-Vauthier représentant la femme d'affaires et philanthrope Marguerite Boucicaut et la baronne Clara de Hirsch.
@@ -576,7 +592,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom d'Aristide Boucicaut fondateur, en 1852, du grand magasin, Au Bon Marché, et époux de Marguerite.
 </t>
@@ -607,10 +625,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square a été créé en 1870 sous le nom de « square du Bon-Marché » en raison de la proximité du magasin du même nom. 
-Le square Boucicaut, la rue Velpeau et une partie des magasins du Bon Marché sont situés à l'emplacement d'un ancien hôpital pour lépreux, la maladrerie Saint-Germain. Cette léproserie fut remplacée  en 1557 par l'hôpital des Petites-Maisons, devenu en 1801 l'hospice des Petits-Ménages[1] destiné aux vieillards indigents[2], transféré à Issy-les-Moulineaux en 1863 (actuel hôpital Corentin-Celton).
+Le square Boucicaut, la rue Velpeau et une partie des magasins du Bon Marché sont situés à l'emplacement d'un ancien hôpital pour lépreux, la maladrerie Saint-Germain. Cette léproserie fut remplacée  en 1557 par l'hôpital des Petites-Maisons, devenu en 1801 l'hospice des Petits-Ménages destiné aux vieillards indigents, transféré à Issy-les-Moulineaux en 1863 (actuel hôpital Corentin-Celton).
 </t>
         </is>
       </c>
@@ -639,18 +659,20 @@
           <t>Hommage publics</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monument aux enfants juifs déportés non scolarisés de l'association pour la mémoire des enfants juifs déportés du 7e arrondissement est situé dans le square[3].
-L'allée centrale du jardin est nommée allée Pierre-Herbart, en hommage à l'écrivain et héros de la Résistance qui vivait près du square[4].
-Le square, face à l'hôtel Lutetia, est un lieu de commémoration officiel de la Résistance et de la mémoire de la Shoah du 7e arrondissement de Paris et accueille des cérémonies[5].
-Le 30 janvier 2024, il est inauguré un monument rendant hommage aux animaux morts pendant les guerres, en particulier la Première Guerre mondiale, car c'est à proximité sur le boulevard Raspail, qu’a été retrouvé fin août 1914 le chien Vitrier, « affaibli, revenant du front, ayant perdu la trace du 26e bataillon (…) auquel il était rattaché »[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument aux enfants juifs déportés non scolarisés de l'association pour la mémoire des enfants juifs déportés du 7e arrondissement est situé dans le square.
+L'allée centrale du jardin est nommée allée Pierre-Herbart, en hommage à l'écrivain et héros de la Résistance qui vivait près du square.
+Le square, face à l'hôtel Lutetia, est un lieu de commémoration officiel de la Résistance et de la mémoire de la Shoah du 7e arrondissement de Paris et accueille des cérémonies.
+Le 30 janvier 2024, il est inauguré un monument rendant hommage aux animaux morts pendant les guerres, en particulier la Première Guerre mondiale, car c'est à proximité sur le boulevard Raspail, qu’a été retrouvé fin août 1914 le chien Vitrier, « affaibli, revenant du front, ayant perdu la trace du 26e bataillon (…) auquel il était rattaché ».
 			Le square en arrière-plan, sur une publicité en 1900.
 			Allée.
 			Allée.
 			Kiosque.
 			Sous la neige.
-Il ne faut pas confondre ce square avec le jardin Marguerite-Boucicaut[7] situé dans le 15e arrondissement, près de la rue Marguerite-Boucicaut.
+Il ne faut pas confondre ce square avec le jardin Marguerite-Boucicaut situé dans le 15e arrondissement, près de la rue Marguerite-Boucicaut.
 </t>
         </is>
       </c>
